--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffgtf\Source\Repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\source\repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4AD682-68BB-4196-B517-5465F2446D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F4C9BA-2C83-4755-8104-C14A8528C6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="2130" windowWidth="27240" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>bdika11</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>South America</t>
+  </si>
+  <si>
+    <t>tomer99</t>
+  </si>
+  <si>
+    <t>Tomer99!</t>
+  </si>
+  <si>
+    <t>Tomer91</t>
+  </si>
+  <si>
+    <t>Tomer9!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -462,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -501,6 +516,44 @@
       </c>
       <c r="C3">
         <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\source\repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\Source\Repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F4C9BA-2C83-4755-8104-C14A8528C6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65AB91A-2763-4473-92A1-4054EEDAF9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>bdika11</t>
   </si>
@@ -158,7 +158,40 @@
     <t>Tomer9!!</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>ש</t>
+  </si>
+  <si>
+    <t>kakape98</t>
+  </si>
+  <si>
+    <t>kaka1998!</t>
+  </si>
+  <si>
+    <t>avivaa98</t>
+  </si>
+  <si>
+    <t>avivaa98!</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>aaaaaa11</t>
+  </si>
+  <si>
+    <t>aaaaaa1!</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>bbbbbb9</t>
+  </si>
+  <si>
+    <t>bbbbbb1!</t>
+  </si>
+  <si>
+    <t>Central America</t>
   </si>
 </sst>
 </file>
@@ -477,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -552,8 +585,47 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
       <c r="C7">
-        <v>3</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -563,7 +635,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -720,6 +792,75 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45049</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45049</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45049</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -727,7 +868,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38953711-B99E-424A-A94F-86EB399A85F5}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -871,6 +1012,40 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\Source\Repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\source\repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65AB91A-2763-4473-92A1-4054EEDAF9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3F151E-325A-42AC-A415-B3CB5ECE7142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>bdika11</t>
   </si>
@@ -512,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -635,9 +635,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -858,6 +858,64 @@
         <v>21</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45049</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45049</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
     </row>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\source\repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3F151E-325A-42AC-A415-B3CB5ECE7142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2E057A-856B-4206-939B-B6E68107CC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
   <si>
     <t>bdika11</t>
   </si>
@@ -635,7 +635,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -916,6 +916,32 @@
         <v>21</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45049</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
     </row>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\source\repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2E057A-856B-4206-939B-B6E68107CC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E13335-E64E-46ED-B68A-6FAC5E4F0C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>bdika11</t>
   </si>
@@ -192,6 +192,30 @@
   </si>
   <si>
     <t>Central America</t>
+  </si>
+  <si>
+    <t>daniel12</t>
+  </si>
+  <si>
+    <t>daniel12!</t>
+  </si>
+  <si>
+    <t>daniel13</t>
+  </si>
+  <si>
+    <t>daniel13!</t>
+  </si>
+  <si>
+    <t>daniel14</t>
+  </si>
+  <si>
+    <t>daniel14!</t>
+  </si>
+  <si>
+    <t>daniel11</t>
+  </si>
+  <si>
+    <t>daniel11!</t>
   </si>
 </sst>
 </file>
@@ -510,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -626,6 +650,50 @@
       </c>
       <c r="C10">
         <v>1113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\source\repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hodaya Amiel\Source\Repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E13335-E64E-46ED-B68A-6FAC5E4F0C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5622D6AF-F55D-464A-AEE0-B5A54FBAFBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>bdika11</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>daniel11!</t>
+  </si>
+  <si>
+    <t>daniel34</t>
+  </si>
+  <si>
+    <t>Daniel34!</t>
   </si>
 </sst>
 </file>
@@ -534,15 +540,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -553,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -564,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -575,7 +581,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -586,7 +592,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -597,7 +603,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -608,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -619,7 +625,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -630,7 +636,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -641,7 +647,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -652,7 +658,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -663,7 +669,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -674,7 +680,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -685,7 +691,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -694,6 +700,17 @@
       </c>
       <c r="C14">
         <v>555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -703,20 +720,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -745,7 +762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -768,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -791,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -814,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -837,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -860,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -883,7 +900,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -906,7 +923,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -929,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -958,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -987,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1011,6 +1028,58 @@
       </c>
       <c r="I12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45050</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45050</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -1026,9 +1095,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1045,7 +1114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1062,7 +1131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1079,7 +1148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1096,7 +1165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1113,7 +1182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1130,7 +1199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1147,7 +1216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1164,7 +1233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1181,7 +1250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hodaya Amiel\Source\Repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hodaya Amiel\source\repos\Project 1\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5622D6AF-F55D-464A-AEE0-B5A54FBAFBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE2515E-6196-43E1-91D9-5685F6FFADF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
   <si>
     <t>bdika11</t>
   </si>
@@ -222,6 +222,24 @@
   </si>
   <si>
     <t>Daniel34!</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Head Color</t>
+  </si>
+  <si>
+    <t>Chest Color</t>
+  </si>
+  <si>
+    <t>Body Color</t>
   </si>
 </sst>
 </file>
@@ -720,20 +738,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="17.08203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.58203125" customWidth="1"/>
+    <col min="8" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -761,8 +785,17 @@
       <c r="I1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -785,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -808,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -831,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -854,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -877,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -900,7 +933,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -923,7 +956,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -946,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -975,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1004,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1030,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1053,7 +1086,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1080,6 +1113,38 @@
       </c>
       <c r="I14">
         <v>777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45054</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15">
+        <v>777</v>
+      </c>
+      <c r="J15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hodaya Amiel\source\repos\Project 1\LoginPage\bin\Debug\net7.0-windows\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviv1\Documents\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE2515E-6196-43E1-91D9-5685F6FFADF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634A88CB-6C35-4FC6-8084-E9A234017A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
   <si>
     <t>bdika11</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>Body Color</t>
+  </si>
+  <si>
+    <t>aviv12</t>
+  </si>
+  <si>
+    <t>123456a!</t>
   </si>
 </sst>
 </file>
@@ -558,15 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -577,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -588,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -599,7 +605,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -610,7 +616,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -621,7 +627,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -632,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -643,7 +649,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -654,7 +660,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -665,7 +671,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -676,7 +682,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -687,7 +693,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -698,7 +704,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -709,7 +715,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -720,7 +726,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -729,6 +735,17 @@
       </c>
       <c r="C15">
         <v>777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16">
+        <v>757575</v>
       </c>
     </row>
   </sheetData>
@@ -744,20 +761,20 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="17.08203125" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.58203125" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="9" width="8.625" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="11.08203125" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -795,7 +812,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -818,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -841,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -864,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -887,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -910,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -933,7 +950,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -956,7 +973,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -979,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1008,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1037,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1063,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1086,7 +1103,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1115,7 +1132,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1160,9 +1177,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1179,7 +1196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1196,7 +1213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1213,7 +1230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1230,7 +1247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1247,7 +1264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1264,7 +1281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1281,7 +1298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1298,7 +1315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1315,7 +1332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviv1\Documents\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634A88CB-6C35-4FC6-8084-E9A234017A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B770C168-A06A-4305-91EC-7E9BAE642C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="73">
   <si>
     <t>bdika11</t>
   </si>
@@ -571,6 +571,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -757,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -834,6 +839,15 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -857,6 +871,15 @@
       <c r="I3">
         <v>1</v>
       </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -880,6 +903,15 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -903,6 +935,15 @@
       <c r="I5">
         <v>1</v>
       </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -926,6 +967,15 @@
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -949,6 +999,15 @@
       <c r="I7">
         <v>106</v>
       </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -972,6 +1031,15 @@
       <c r="I8">
         <v>102</v>
       </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -995,6 +1063,15 @@
       <c r="I9">
         <v>1</v>
       </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1024,6 +1101,15 @@
       <c r="I10">
         <v>1</v>
       </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1053,6 +1139,15 @@
       <c r="I11">
         <v>1</v>
       </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1079,6 +1174,15 @@
       <c r="I12">
         <v>1</v>
       </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1102,6 +1206,15 @@
       <c r="I13">
         <v>777</v>
       </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1130,6 +1243,15 @@
       </c>
       <c r="I14">
         <v>777</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1173,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38953711-B99E-424A-A94F-86EB399A85F5}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviv1\Documents\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B770C168-A06A-4305-91EC-7E9BAE642C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BABC6BD-E7D8-4D8A-B4A0-C240B4EBF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="78">
   <si>
     <t>bdika11</t>
   </si>
@@ -246,6 +246,21 @@
   </si>
   <si>
     <t>123456a!</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Diluted</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Pastel</t>
   </si>
 </sst>
 </file>
@@ -760,10 +775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1286,6 +1301,210 @@
         <v>67</v>
       </c>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45055</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16">
+        <v>757575</v>
+      </c>
+      <c r="J16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45055</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <v>757575</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45055</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <v>757575</v>
+      </c>
+      <c r="J18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45055</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>757575</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45055</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20">
+        <v>757575</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45055</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <v>757575</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1295,7 +1514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38953711-B99E-424A-A94F-86EB399A85F5}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviv1\Documents\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffgtf\Source\Repos\Bird-Project-For-College1\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BABC6BD-E7D8-4D8A-B4A0-C240B4EBF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8466F97-BA8B-4CD9-B3F2-2C3F080DA23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="2130" windowWidth="27240" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
   <si>
     <t>bdika11</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Female</t>
   </si>
   <si>
-    <t>a1</t>
-  </si>
-  <si>
     <t>Australian Gouldian</t>
   </si>
   <si>
@@ -261,6 +258,15 @@
   </si>
   <si>
     <t>Pastel</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>a13</t>
   </si>
 </sst>
 </file>
@@ -627,10 +633,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
       </c>
       <c r="C4">
         <v>111</v>
@@ -638,10 +644,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
       </c>
       <c r="C5">
         <v>1121</v>
@@ -649,10 +655,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -660,10 +666,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
       </c>
       <c r="C7">
         <v>334</v>
@@ -671,10 +677,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
       </c>
       <c r="C8">
         <v>106</v>
@@ -682,10 +688,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
       </c>
       <c r="C9">
         <v>102</v>
@@ -693,10 +699,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
         <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
       </c>
       <c r="C10">
         <v>1113</v>
@@ -704,10 +710,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
         <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
       </c>
       <c r="C11">
         <v>121</v>
@@ -715,10 +721,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
       </c>
       <c r="C12">
         <v>999</v>
@@ -726,10 +732,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
       </c>
       <c r="C13">
         <v>333</v>
@@ -737,10 +743,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
       </c>
       <c r="C14">
         <v>555</v>
@@ -748,10 +754,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
         <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
       </c>
       <c r="C15">
         <v>777</v>
@@ -759,10 +765,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
         <v>71</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
       </c>
       <c r="C16">
         <v>757575</v>
@@ -778,7 +784,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -823,13 +829,13 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>69</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -849,19 +855,19 @@
         <v>45048</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" t="s">
         <v>66</v>
-      </c>
-      <c r="L2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -869,10 +875,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
@@ -881,19 +887,19 @@
         <v>45048</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" t="s">
         <v>66</v>
-      </c>
-      <c r="L3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -901,31 +907,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
       </c>
       <c r="G4" s="1">
         <v>45048</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
         <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -933,10 +939,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -951,13 +957,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" t="s">
         <v>66</v>
-      </c>
-      <c r="L5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -971,7 +977,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1">
         <v>45048</v>
@@ -983,13 +989,13 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" t="s">
         <v>66</v>
-      </c>
-      <c r="L6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -997,31 +1003,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
       </c>
       <c r="G7" s="1">
         <v>45049</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I7">
         <v>106</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" t="s">
         <v>66</v>
-      </c>
-      <c r="L7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1041,19 +1047,19 @@
         <v>45049</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I8">
         <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" t="s">
         <v>66</v>
-      </c>
-      <c r="L8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1061,13 +1067,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1">
         <v>45049</v>
@@ -1079,13 +1085,13 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
         <v>66</v>
-      </c>
-      <c r="L9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1093,10 +1099,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -1111,19 +1117,19 @@
         <v>45049</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1155,13 +1161,13 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" t="s">
         <v>66</v>
-      </c>
-      <c r="L11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1175,7 +1181,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1190,13 +1196,13 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" t="s">
         <v>66</v>
-      </c>
-      <c r="L12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1204,13 +1210,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1">
         <v>45050</v>
@@ -1222,13 +1228,13 @@
         <v>777</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" t="s">
         <v>66</v>
-      </c>
-      <c r="L13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1236,13 +1242,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -1260,13 +1266,13 @@
         <v>777</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" t="s">
         <v>66</v>
-      </c>
-      <c r="L14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1274,13 +1280,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
       </c>
       <c r="G15" s="1">
         <v>45054</v>
@@ -1292,13 +1298,13 @@
         <v>777</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" t="s">
         <v>66</v>
-      </c>
-      <c r="L15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1312,25 +1318,25 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1">
         <v>45055</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I16">
         <v>757575</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" t="s">
         <v>66</v>
-      </c>
-      <c r="L16" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1338,10 +1344,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
@@ -1356,13 +1362,13 @@
         <v>757575</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1370,13 +1376,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
       </c>
       <c r="G18" s="1">
         <v>45055</v>
@@ -1388,13 +1394,13 @@
         <v>757575</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1402,13 +1408,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
       </c>
       <c r="G19" s="1">
         <v>45055</v>
@@ -1420,13 +1426,13 @@
         <v>757575</v>
       </c>
       <c r="J19" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" t="s">
         <v>75</v>
-      </c>
-      <c r="K19" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1434,10 +1440,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
         <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>31</v>
@@ -1458,13 +1464,13 @@
         <v>757575</v>
       </c>
       <c r="J20" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" t="s">
         <v>75</v>
-      </c>
-      <c r="K20" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1472,13 +1478,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
       </c>
       <c r="E21">
         <v>16</v>
@@ -1496,13 +1502,13 @@
         <v>757575</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38953711-B99E-424A-A94F-86EB399A85F5}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1658,7 +1664,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -1675,7 +1681,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1687,6 +1693,57 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12">
+        <v>-4</v>
+      </c>
+      <c r="C12">
+        <v>-5</v>
+      </c>
+      <c r="D12">
+        <v>-6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
         <v>20</v>
       </c>
     </row>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffgtf\Source\Repos\Bird-Project-For-College1\LoginPage\bin\Debug\net7.0-windows\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviv1\Desktop\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8466F97-BA8B-4CD9-B3F2-2C3F080DA23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F8C3DC-D011-44CC-B09F-6591360BEB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="2130" windowWidth="27240" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="84">
   <si>
     <t>bdika11</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>a13</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>a14</t>
+  </si>
+  <si>
+    <t>West Europe</t>
+  </si>
+  <si>
+    <t>a15</t>
   </si>
 </sst>
 </file>
@@ -588,7 +600,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -781,9 +793,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1511,6 +1523,105 @@
         <v>76</v>
       </c>
     </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45062</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22">
+        <v>757575</v>
+      </c>
+      <c r="J22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45062</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23">
+        <v>757575</v>
+      </c>
+      <c r="J23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45062</v>
+      </c>
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24">
+        <v>757575</v>
+      </c>
+      <c r="J24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1518,15 +1629,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38953711-B99E-424A-A94F-86EB399A85F5}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1542,8 +1659,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1559,8 +1679,11 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1576,8 +1699,11 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1593,8 +1719,11 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1610,8 +1739,11 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1627,8 +1759,11 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1644,8 +1779,11 @@
       <c r="E7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1661,8 +1799,11 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1678,8 +1819,11 @@
       <c r="E9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1695,8 +1839,11 @@
       <c r="E10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -1712,8 +1859,11 @@
       <c r="E11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1729,8 +1879,11 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -1745,6 +1898,49 @@
       </c>
       <c r="E13" t="s">
         <v>20</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>757575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <v>757575</v>
       </c>
     </row>
   </sheetData>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviv1\Desktop\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F8C3DC-D011-44CC-B09F-6591360BEB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBA11BD-DBF7-446F-BF6E-8BAEB9C116F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,7 +796,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1030,7 @@
         <v>19</v>
       </c>
       <c r="I7">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>64</v>
@@ -1062,7 +1062,7 @@
         <v>19</v>
       </c>
       <c r="I8">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>64</v>
@@ -1237,7 +1237,7 @@
         <v>21</v>
       </c>
       <c r="I13">
-        <v>777</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>64</v>
@@ -1275,7 +1275,7 @@
         <v>21</v>
       </c>
       <c r="I14">
-        <v>777</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>64</v>
@@ -1307,7 +1307,7 @@
         <v>19</v>
       </c>
       <c r="I15">
-        <v>777</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>64</v>
@@ -1339,7 +1339,7 @@
         <v>19</v>
       </c>
       <c r="I16">
-        <v>757575</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>64</v>
@@ -1371,7 +1371,7 @@
         <v>19</v>
       </c>
       <c r="I17">
-        <v>757575</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>64</v>
@@ -1403,7 +1403,7 @@
         <v>19</v>
       </c>
       <c r="I18">
-        <v>757575</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>64</v>
@@ -1435,7 +1435,7 @@
         <v>19</v>
       </c>
       <c r="I19">
-        <v>757575</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>74</v>
@@ -1473,7 +1473,7 @@
         <v>19</v>
       </c>
       <c r="I20">
-        <v>757575</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>74</v>
@@ -1511,7 +1511,7 @@
         <v>19</v>
       </c>
       <c r="I21">
-        <v>757575</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>64</v>
@@ -1632,7 +1632,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1860,7 +1860,7 @@
         <v>22</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1880,7 +1880,7 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1900,7 +1900,7 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviv1\Desktop\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\source\repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBA11BD-DBF7-446F-BF6E-8BAEB9C116F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ABD04E-9016-49F4-8FDA-4DF69345C118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="89">
   <si>
     <t>bdika11</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Tomer9!!</t>
   </si>
   <si>
-    <t>ש</t>
-  </si>
-  <si>
     <t>kakape98</t>
   </si>
   <si>
@@ -279,6 +276,24 @@
   </si>
   <si>
     <t>a15</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t>a17</t>
+  </si>
+  <si>
+    <t>a18</t>
+  </si>
+  <si>
+    <t>a19</t>
+  </si>
+  <si>
+    <t>a20</t>
   </si>
 </sst>
 </file>
@@ -600,7 +615,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,10 +682,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -678,10 +693,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
       </c>
       <c r="C7">
         <v>334</v>
@@ -689,10 +704,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
       </c>
       <c r="C8">
         <v>106</v>
@@ -700,10 +715,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
       </c>
       <c r="C9">
         <v>102</v>
@@ -711,10 +726,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
       </c>
       <c r="C10">
         <v>1113</v>
@@ -722,10 +737,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
         <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
       </c>
       <c r="C11">
         <v>121</v>
@@ -733,10 +748,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
       </c>
       <c r="C12">
         <v>999</v>
@@ -744,10 +759,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
         <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
       </c>
       <c r="C13">
         <v>333</v>
@@ -755,10 +770,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
         <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
       </c>
       <c r="C14">
         <v>555</v>
@@ -766,10 +781,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
         <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
       </c>
       <c r="C15">
         <v>777</v>
@@ -777,10 +792,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
         <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
       </c>
       <c r="C16">
         <v>757575</v>
@@ -793,10 +808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -841,13 +856,13 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>68</v>
-      </c>
-      <c r="L1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -873,13 +888,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -905,13 +920,13 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -931,19 +946,19 @@
         <v>45048</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -969,13 +984,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1001,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1033,13 +1048,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1065,13 +1080,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1082,7 +1097,7 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -1097,13 +1112,13 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1135,13 +1150,13 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1173,13 +1188,13 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1208,13 +1223,13 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1225,7 +1240,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -1240,13 +1255,13 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1257,7 +1272,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
@@ -1278,13 +1293,13 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1310,13 +1325,13 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1342,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1374,13 +1389,13 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1406,13 +1421,13 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1438,13 +1453,13 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" t="s">
         <v>74</v>
-      </c>
-      <c r="K19" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1476,13 +1491,13 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" t="s">
         <v>74</v>
-      </c>
-      <c r="K20" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1514,13 +1529,13 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1531,7 +1546,7 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -1540,19 +1555,19 @@
         <v>45062</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22">
         <v>757575</v>
       </c>
       <c r="J22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1572,19 +1587,19 @@
         <v>45062</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23">
         <v>757575</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1595,7 +1610,7 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
@@ -1607,19 +1622,360 @@
         <v>45062</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24">
         <v>757575</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L24" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="1">
+        <v>45065</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>45065</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>45065</v>
+      </c>
+      <c r="H27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="1">
+        <v>45065</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="1">
+        <v>45065</v>
+      </c>
+      <c r="H29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45065</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="1">
+        <v>45065</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="1">
+        <v>45065</v>
+      </c>
+      <c r="H32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1">
+        <v>45065</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45065</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1629,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38953711-B99E-424A-A94F-86EB399A85F5}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1660,7 +2016,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1668,16 +2024,16 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1708,16 +2064,16 @@
         <v>23</v>
       </c>
       <c r="B4">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4">
-        <v>222</v>
-      </c>
-      <c r="D4">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1760,7 +2116,7 @@
         <v>22</v>
       </c>
       <c r="F6">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1780,7 +2136,7 @@
         <v>27</v>
       </c>
       <c r="F7">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1800,12 +2156,12 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -1820,12 +2176,12 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1840,12 +2196,12 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1860,12 +2216,12 @@
         <v>22</v>
       </c>
       <c r="F11">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>-4</v>
@@ -1880,12 +2236,12 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1900,12 +2256,12 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1920,12 +2276,12 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>757575</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -1940,7 +2296,107 @@
         <v>27</v>
       </c>
       <c r="F15">
-        <v>757575</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>234</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20">
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <v>66</v>
+      </c>
+      <c r="D20">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\source\repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ABD04E-9016-49F4-8FDA-4DF69345C118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E7F31B-4B09-4E0A-92D8-46660C9984E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="85">
   <si>
     <t>bdika11</t>
   </si>
@@ -155,6 +155,9 @@
     <t>Tomer9!!</t>
   </si>
   <si>
+    <t>ש</t>
+  </si>
+  <si>
     <t>kakape98</t>
   </si>
   <si>
@@ -278,22 +281,7 @@
     <t>a15</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a16</t>
-  </si>
-  <si>
-    <t>a17</t>
-  </si>
-  <si>
-    <t>a18</t>
-  </si>
-  <si>
-    <t>a19</t>
-  </si>
-  <si>
-    <t>a20</t>
+    <t>tomer13</t>
   </si>
 </sst>
 </file>
@@ -612,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -682,10 +670,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -693,10 +681,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>334</v>
@@ -704,10 +692,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>106</v>
@@ -715,10 +703,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>102</v>
@@ -726,10 +714,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>1113</v>
@@ -737,10 +725,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>121</v>
@@ -748,10 +736,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>999</v>
@@ -759,10 +747,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>333</v>
@@ -770,10 +758,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>555</v>
@@ -781,10 +769,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>777</v>
@@ -792,13 +780,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>757575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -808,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -856,13 +855,13 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -888,13 +887,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -914,19 +913,19 @@
         <v>45048</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -946,19 +945,19 @@
         <v>45048</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -984,13 +983,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1010,19 +1009,19 @@
         <v>45048</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1042,19 +1041,19 @@
         <v>45049</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1080,13 +1079,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1097,7 +1096,7 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -1112,13 +1111,13 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1150,13 +1149,13 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1188,13 +1187,13 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1223,13 +1222,13 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1240,7 +1239,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -1255,13 +1254,13 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1272,7 +1271,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
@@ -1293,13 +1292,13 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1325,13 +1324,13 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1357,13 +1356,13 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1389,13 +1388,13 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1421,13 +1420,13 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1453,13 +1452,13 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1491,13 +1490,13 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1529,13 +1528,13 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1546,7 +1545,7 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -1555,19 +1554,19 @@
         <v>45062</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I22">
         <v>757575</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1587,19 +1586,19 @@
         <v>45062</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I23">
         <v>757575</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1610,7 +1609,7 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
@@ -1622,19 +1621,19 @@
         <v>45062</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>757575</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1642,31 +1641,37 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
       </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
       <c r="G25" s="1">
-        <v>45065</v>
+        <v>45067</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1683,28 +1688,28 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="G26" s="1">
-        <v>45065</v>
+        <v>45068</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1715,267 +1720,34 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G27" s="1">
-        <v>45065</v>
+        <v>45068</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="1">
-        <v>45065</v>
-      </c>
-      <c r="H28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="1">
-        <v>45065</v>
-      </c>
-      <c r="H29" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>73</v>
-      </c>
-      <c r="K29" t="s">
-        <v>64</v>
-      </c>
-      <c r="L29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="1">
-        <v>45065</v>
-      </c>
-      <c r="H30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" t="s">
-        <v>64</v>
-      </c>
-      <c r="L30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="1">
-        <v>45065</v>
-      </c>
-      <c r="H31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" t="s">
-        <v>64</v>
-      </c>
-      <c r="L31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="1">
-        <v>45065</v>
-      </c>
-      <c r="H32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32" t="s">
-        <v>64</v>
-      </c>
-      <c r="L32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33" s="1">
-        <v>45065</v>
-      </c>
-      <c r="H33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
-        <v>63</v>
-      </c>
-      <c r="K33" t="s">
-        <v>64</v>
-      </c>
-      <c r="L33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1">
-        <v>45065</v>
-      </c>
-      <c r="H34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K34" t="s">
-        <v>64</v>
-      </c>
-      <c r="L34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1985,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38953711-B99E-424A-A94F-86EB399A85F5}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2016,7 +1788,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2024,16 +1796,16 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2064,16 +1836,16 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2116,7 +1888,7 @@
         <v>22</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2136,7 +1908,7 @@
         <v>27</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2156,12 +1928,12 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -2176,12 +1948,12 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2196,12 +1968,12 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2216,12 +1988,12 @@
         <v>22</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>-4</v>
@@ -2236,12 +2008,12 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -2256,12 +2028,12 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2276,12 +2048,12 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>757575</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -2296,107 +2068,7 @@
         <v>27</v>
       </c>
       <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19">
-        <v>32</v>
-      </c>
-      <c r="C19">
-        <v>23</v>
-      </c>
-      <c r="D19">
-        <v>234</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20">
-        <v>66</v>
-      </c>
-      <c r="C20">
-        <v>66</v>
-      </c>
-      <c r="D20">
-        <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
+        <v>757575</v>
       </c>
     </row>
   </sheetData>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\source\repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviv1\Source\Repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E7F31B-4B09-4E0A-92D8-46660C9984E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06A30CF-F2E6-4D30-AEEA-8EB0DA6E4143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
   <si>
     <t>bdika11</t>
   </si>
@@ -807,7 +807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
@@ -1735,7 +1735,7 @@
         <v>45068</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1747,6 +1747,38 @@
         <v>65</v>
       </c>
       <c r="L27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="1">
+        <v>45069</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1822,7 +1854,7 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviv1\Source\Repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\Documents\Tomer\SCE\2nd-year\2-semester\QA course\BirdsProject\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06A30CF-F2E6-4D30-AEEA-8EB0DA6E4143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E123A5-E7A7-4D01-B198-6D485864684E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="123">
   <si>
     <t>bdika11</t>
   </si>
@@ -282,6 +282,120 @@
   </si>
   <si>
     <t>tomer13</t>
+  </si>
+  <si>
+    <t>asifpe15</t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t>arvili11</t>
+  </si>
+  <si>
+    <t>arvili12</t>
+  </si>
+  <si>
+    <t>arvili13</t>
+  </si>
+  <si>
+    <t>a17</t>
+  </si>
+  <si>
+    <t>a18</t>
+  </si>
+  <si>
+    <t>arvivi19</t>
+  </si>
+  <si>
+    <t>arvivi20</t>
+  </si>
+  <si>
+    <t>arvivi21</t>
+  </si>
+  <si>
+    <t>a19</t>
+  </si>
+  <si>
+    <t>arvivi22</t>
+  </si>
+  <si>
+    <t>a20</t>
+  </si>
+  <si>
+    <t>arvivi23</t>
+  </si>
+  <si>
+    <t>a21</t>
+  </si>
+  <si>
+    <t>arvivi24</t>
+  </si>
+  <si>
+    <t>a22</t>
+  </si>
+  <si>
+    <t>a23</t>
+  </si>
+  <si>
+    <t>a24</t>
+  </si>
+  <si>
+    <t>arvivi25</t>
+  </si>
+  <si>
+    <t>a25</t>
+  </si>
+  <si>
+    <t>a26</t>
+  </si>
+  <si>
+    <t>arvivi26</t>
+  </si>
+  <si>
+    <t>a27</t>
+  </si>
+  <si>
+    <t>arvivi27</t>
+  </si>
+  <si>
+    <t>a28</t>
+  </si>
+  <si>
+    <t>arvili89</t>
+  </si>
+  <si>
+    <t>a29</t>
+  </si>
+  <si>
+    <t>arvili30</t>
+  </si>
+  <si>
+    <t>a30</t>
+  </si>
+  <si>
+    <t>a31</t>
+  </si>
+  <si>
+    <t>a32</t>
+  </si>
+  <si>
+    <t>a33</t>
+  </si>
+  <si>
+    <t>a34</t>
+  </si>
+  <si>
+    <t>a35</t>
+  </si>
+  <si>
+    <t>a36</t>
+  </si>
+  <si>
+    <t>a37</t>
+  </si>
+  <si>
+    <t>Lilac</t>
   </si>
 </sst>
 </file>
@@ -600,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -800,6 +914,171 @@
         <v>6</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>-21312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>8020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22">
+        <v>8022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>8023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>8024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <v>8025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26">
+        <v>8026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27">
+        <v>8027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28">
+        <v>8028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29">
+        <v>8029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30">
+        <v>8030</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31">
+        <v>8031</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
+        <v>8032</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -807,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
@@ -1782,6 +2061,408 @@
         <v>66</v>
       </c>
     </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>444</v>
+      </c>
+      <c r="J29" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45019</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31">
+        <v>8032</v>
+      </c>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>23</v>
+      </c>
+      <c r="G32" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36" t="s">
+        <v>122</v>
+      </c>
+      <c r="L36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" t="s">
+        <v>65</v>
+      </c>
+      <c r="L38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1789,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38953711-B99E-424A-A94F-86EB399A85F5}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2103,6 +2784,446 @@
         <v>757575</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17">
+        <v>324</v>
+      </c>
+      <c r="C17">
+        <v>4234</v>
+      </c>
+      <c r="D17">
+        <v>243</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18">
+        <v>324</v>
+      </c>
+      <c r="C18">
+        <v>324</v>
+      </c>
+      <c r="D18">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19">
+        <v>123</v>
+      </c>
+      <c r="C19">
+        <v>331</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20">
+        <v>213</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>8028</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <v>8030</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>8031</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>8032</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37">
+        <v>213</v>
+      </c>
+      <c r="C37">
+        <v>41</v>
+      </c>
+      <c r="D37">
+        <v>123</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\Documents\Tomer\SCE\2nd-year\2-semester\QA course\BirdsProject\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E123A5-E7A7-4D01-B198-6D485864684E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13B43A6-C768-465D-AB89-EB443DE88436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="125">
   <si>
     <t>bdika11</t>
   </si>
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>Lilac</t>
+  </si>
+  <si>
+    <t>a38</t>
+  </si>
+  <si>
+    <t>a39</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
@@ -2463,6 +2469,242 @@
         <v>66</v>
       </c>
     </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" t="s">
+        <v>65</v>
+      </c>
+      <c r="L41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42" t="s">
+        <v>65</v>
+      </c>
+      <c r="L42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" t="s">
+        <v>65</v>
+      </c>
+      <c r="L43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44" t="s">
+        <v>65</v>
+      </c>
+      <c r="L44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45" t="s">
+        <v>65</v>
+      </c>
+      <c r="L45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H46" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>64</v>
+      </c>
+      <c r="K47" t="s">
+        <v>65</v>
+      </c>
+      <c r="L47" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2470,7 +2712,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38953711-B99E-424A-A94F-86EB399A85F5}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -3224,6 +3466,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\Documents\Tomer\SCE\2nd-year\2-semester\QA course\BirdsProject\LoginPage\bin\Debug\net7.0-windows\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviv1\source\repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13B43A6-C768-465D-AB89-EB443DE88436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3E192B-E79A-4A91-9DD8-586D85B74891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="130">
   <si>
     <t>bdika11</t>
   </si>
@@ -402,6 +402,21 @@
   </si>
   <si>
     <t>a39</t>
+  </si>
+  <si>
+    <t>tomerg2</t>
+  </si>
+  <si>
+    <t>a123456!</t>
+  </si>
+  <si>
+    <t>a40</t>
+  </si>
+  <si>
+    <t>a41</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
 </sst>
 </file>
@@ -720,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1085,6 +1100,17 @@
         <v>8032</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33">
+        <v>8033</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1092,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
@@ -2705,6 +2731,210 @@
         <v>66</v>
       </c>
     </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="1">
+        <v>45076</v>
+      </c>
+      <c r="H48" t="s">
+        <v>127</v>
+      </c>
+      <c r="I48">
+        <v>8033</v>
+      </c>
+      <c r="J48" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" t="s">
+        <v>65</v>
+      </c>
+      <c r="L48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="1">
+        <v>45076</v>
+      </c>
+      <c r="H49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I49">
+        <v>8033</v>
+      </c>
+      <c r="J49" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49" t="s">
+        <v>65</v>
+      </c>
+      <c r="L49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>45076</v>
+      </c>
+      <c r="H50" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50">
+        <v>8033</v>
+      </c>
+      <c r="J50" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50" t="s">
+        <v>129</v>
+      </c>
+      <c r="L50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51">
+        <v>48</v>
+      </c>
+      <c r="G51" s="1">
+        <v>45076</v>
+      </c>
+      <c r="H51" t="s">
+        <v>128</v>
+      </c>
+      <c r="I51">
+        <v>8033</v>
+      </c>
+      <c r="J51" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51" t="s">
+        <v>65</v>
+      </c>
+      <c r="L51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="1">
+        <v>45076</v>
+      </c>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>64</v>
+      </c>
+      <c r="K52" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53">
+        <v>49</v>
+      </c>
+      <c r="F53">
+        <v>48</v>
+      </c>
+      <c r="G53" s="1">
+        <v>45077</v>
+      </c>
+      <c r="H53" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53">
+        <v>8033</v>
+      </c>
+      <c r="J53" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" t="s">
+        <v>65</v>
+      </c>
+      <c r="L53" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2712,7 +2942,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38953711-B99E-424A-A94F-86EB399A85F5}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -3506,6 +3736,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40">
+        <v>8033</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <v>120</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>8033</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
+++ b/LoginPage/bin/Debug/net7.0-windows/Data/birds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviv1\source\repos\Bird-Project-For-College\LoginPage\bin\Debug\net7.0-windows\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer\Documents\Tomer\SCE\2nd-year\2-semester\QA course\BirdsProject\LoginPage\bin\Debug\net7.0-windows\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3E192B-E79A-4A91-9DD8-586D85B74891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1922BB-11BC-4BDA-9800-263C1E9B3A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="133">
   <si>
     <t>bdika11</t>
   </si>
@@ -417,6 +417,15 @@
   </si>
   <si>
     <t>White</t>
+  </si>
+  <si>
+    <t>arvili75</t>
+  </si>
+  <si>
+    <t>a42</t>
+  </si>
+  <si>
+    <t>a43</t>
   </si>
 </sst>
 </file>
@@ -735,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1111,6 +1120,17 @@
         <v>8033</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <v>8034</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1118,7 +1138,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D0F034-6ABF-4A1B-831B-4EE238759774}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
@@ -2935,6 +2955,108 @@
         <v>66</v>
       </c>
     </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="1">
+        <v>45077</v>
+      </c>
+      <c r="H54" t="s">
+        <v>132</v>
+      </c>
+      <c r="I54">
+        <v>8034</v>
+      </c>
+      <c r="J54" t="s">
+        <v>64</v>
+      </c>
+      <c r="K54" t="s">
+        <v>65</v>
+      </c>
+      <c r="L54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="1">
+        <v>45077</v>
+      </c>
+      <c r="H55" t="s">
+        <v>131</v>
+      </c>
+      <c r="I55">
+        <v>8034</v>
+      </c>
+      <c r="J55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K55" t="s">
+        <v>65</v>
+      </c>
+      <c r="L55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56">
+        <v>54</v>
+      </c>
+      <c r="F56">
+        <v>53</v>
+      </c>
+      <c r="G56" s="1">
+        <v>45077</v>
+      </c>
+      <c r="H56" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56">
+        <v>8034</v>
+      </c>
+      <c r="J56" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56" t="s">
+        <v>65</v>
+      </c>
+      <c r="L56" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2942,7 +3064,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38953711-B99E-424A-A94F-86EB399A85F5}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -3776,6 +3898,46 @@
         <v>8033</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>144</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>8034</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>8034</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
